--- a/PE Ratio.xlsx
+++ b/PE Ratio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="28">
   <si>
     <t>Industry</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>infrastructure-general</t>
+  </si>
+  <si>
+    <t>mining-minerals</t>
   </si>
   <si>
     <t>paints-varnishes</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,10 +486,10 @@
         <v>2015</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>33.03218839983546</v>
+        <v>33.61425339366516</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -500,10 +503,10 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>23.65279823269514</v>
+        <v>24.06958762886598</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -517,10 +520,10 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>24.28404022076057</v>
+        <v>24.71195282376956</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -534,10 +537,10 @@
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>22.8469307916637</v>
+        <v>23.24951988050359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -551,10 +554,10 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>19.88023766788389</v>
+        <v>20.23055022590828</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -568,10 +571,10 @@
         <v>2015</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>39.00007041757623</v>
+        <v>35.26113184517522</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -585,10 +588,10 @@
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>34.06708767325514</v>
+        <v>30.80107438694332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -602,10 +605,10 @@
         <v>2017</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>29.1259685166357</v>
+        <v>26.33366055464011</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -619,10 +622,10 @@
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>36.99336509774236</v>
+        <v>33.44680945807544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -636,10 +639,10 @@
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>30.6661006625939</v>
+        <v>27.72614015983463</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -653,10 +656,10 @@
         <v>2015</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>69.32203389830508</v>
+        <v>64.83050847457628</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -670,10 +673,10 @@
         <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>59.70802919708029</v>
+        <v>55.83941605839416</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -687,10 +690,10 @@
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>19.02325581395349</v>
+        <v>17.79069767441861</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -704,10 +707,10 @@
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>13.93526405451448</v>
+        <v>13.03236797274276</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -721,10 +724,10 @@
         <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>12.10059171597633</v>
+        <v>11.31656804733728</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -738,10 +741,10 @@
         <v>2000</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>195.0518134715026</v>
+        <v>185.6347150259067</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -755,10 +758,10 @@
         <v>2001</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>115.2986217457887</v>
+        <v>109.7320061255743</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -772,10 +775,10 @@
         <v>2002</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>107.7110157367668</v>
+        <v>102.5107296137339</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -789,10 +792,10 @@
         <v>2003</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>89.63095238095238</v>
+        <v>85.30357142857142</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -806,10 +809,10 @@
         <v>2004</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>64.24061433447099</v>
+        <v>61.13907849829351</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -823,10 +826,10 @@
         <v>2005</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>63.64327979712595</v>
+        <v>60.57058326289095</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -840,10 +843,10 @@
         <v>2006</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>43.24526134405514</v>
+        <v>41.1573808156232</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -857,10 +860,10 @@
         <v>2007</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>32.17521367521368</v>
+        <v>30.62179487179487</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -874,10 +877,10 @@
         <v>2008</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>25.14696058784235</v>
+        <v>23.93286573146292</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -891,10 +894,10 @@
         <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>14.88827368004746</v>
+        <v>14.1694680640696</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -908,10 +911,10 @@
         <v>2010</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>12.13180792781179</v>
+        <v>11.5460844344183</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -925,10 +928,10 @@
         <v>2011</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>9.121637993700023</v>
+        <v>8.681245456748242</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -942,10 +945,10 @@
         <v>2012</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>7.333203467419889</v>
+        <v>6.979156520892178</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -959,10 +962,10 @@
         <v>2013</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>6.802493675460787</v>
+        <v>6.474069389230213</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -976,10 +979,10 @@
         <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>5.689563968865714</v>
+        <v>5.414871911131262</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -993,10 +996,10 @@
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32">
-        <v>24.25579896907216</v>
+        <v>23.0847293814433</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1010,10 +1013,10 @@
         <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33">
-        <v>21.81686467690525</v>
+        <v>20.76354679802956</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1027,10 +1030,10 @@
         <v>2017</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>49.01692708333334</v>
+        <v>46.650390625</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1044,10 +1047,10 @@
         <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>703.6448598130841</v>
+        <v>669.6728971962616</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1061,10 +1064,10 @@
         <v>2019</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>41.390874106652</v>
+        <v>39.39252336448597</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1078,10 +1081,10 @@
         <v>2000</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>6.012360211889348</v>
+        <v>5.632725132430842</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1095,10 +1098,10 @@
         <v>2001</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>11.00754310344828</v>
+        <v>10.3125</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1112,10 +1115,10 @@
         <v>2002</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>5.539587852494577</v>
+        <v>5.189804772234273</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1129,10 +1132,10 @@
         <v>2003</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>3.912294140176178</v>
+        <v>3.665262351589429</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1146,10 +1149,10 @@
         <v>2004</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>3.098271155595997</v>
+        <v>2.902638762511374</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1163,10 +1166,10 @@
         <v>2005</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>4.425909878682843</v>
+        <v>4.146447140381283</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1180,10 +1183,10 @@
         <v>2006</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>3.54318418314256</v>
+        <v>3.31945889698231</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1197,10 +1200,10 @@
         <v>2007</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>3.624911284599007</v>
+        <v>3.396025550035486</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1214,10 +1217,10 @@
         <v>2008</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>2.591981730525248</v>
+        <v>2.428317685866531</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1231,10 +1234,10 @@
         <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>1.670755642787046</v>
+        <v>1.565260058881256</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1248,10 +1251,10 @@
         <v>2010</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>1.216650786088614</v>
+        <v>1.139828489757027</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1265,10 +1268,10 @@
         <v>2011</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.9429520908335641</v>
+        <v>0.8834117972860703</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1282,10 +1285,10 @@
         <v>2012</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.8387388127104032</v>
+        <v>0.7857787995730355</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1299,10 +1302,10 @@
         <v>2013</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>0.9603271599135095</v>
+        <v>0.8996897621509824</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1316,10 +1319,10 @@
         <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.9659574468085107</v>
+        <v>0.9049645390070922</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1333,10 +1336,10 @@
         <v>2015</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>6.646063760572544</v>
+        <v>6.226415094339623</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1350,10 +1353,10 @@
         <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>-4.361656703672075</v>
+        <v>-4.086251067463706</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1367,10 +1370,10 @@
         <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>17.025</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1384,10 +1387,10 @@
         <v>2018</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>-11.13958560523446</v>
+        <v>-10.43620501635769</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1401,10 +1404,10 @@
         <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>62.28658536585367</v>
+        <v>58.35365853658537</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1418,10 +1421,10 @@
         <v>2015</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>15.17001295336788</v>
+        <v>14.23251295336788</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1435,10 +1438,10 @@
         <v>2016</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>15.63063063063063</v>
+        <v>14.66466466466466</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1452,10 +1455,10 @@
         <v>2017</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>18.64106645443693</v>
+        <v>17.48905690409869</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1469,10 +1472,10 @@
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>30.83936800526662</v>
+        <v>28.93350888742594</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1486,10 +1489,10 @@
         <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>20.35853976531942</v>
+        <v>19.10039113428944</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1503,10 +1506,10 @@
         <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>22.6051848332623</v>
+        <v>21.31205648983318</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1520,10 +1523,10 @@
         <v>2015</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>43.40754766496595</v>
+        <v>40.92774271903913</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1537,10 +1540,10 @@
         <v>2016</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>45.11417352142033</v>
+        <v>42.53002388750937</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1554,10 +1557,10 @@
         <v>2017</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>31.58929191635074</v>
+        <v>29.77488320900085</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1571,10 +1574,10 @@
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>22.95373348352459</v>
+        <v>21.62610224243484</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1588,10 +1591,10 @@
         <v>2015</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.7062572818860942</v>
+        <v>0.6747309985607567</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1605,10 +1608,10 @@
         <v>2016</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>1.82163691002298</v>
+        <v>1.740321725296093</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1622,10 +1625,10 @@
         <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>14.87012987012987</v>
+        <v>14.20634920634921</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1639,10 +1642,10 @@
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>17.95296167247387</v>
+        <v>17.15156794425087</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1656,10 +1659,10 @@
         <v>2019</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>13.02781289506953</v>
+        <v>12.44627054361568</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1673,10 +1676,10 @@
         <v>2015</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>596.4422748364542</v>
+        <v>587.1947542901856</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1690,10 +1693,10 @@
         <v>2016</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>462.9480415912238</v>
+        <v>455.8509945148578</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1707,10 +1710,10 @@
         <v>2017</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>1058.390152300041</v>
+        <v>1041.561536940059</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1724,10 +1727,10 @@
         <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>525.6251944949325</v>
+        <v>517.3404435861423</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1741,10 +1744,10 @@
         <v>2019</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>243.7512366575916</v>
+        <v>239.9509142063626</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1758,10 +1761,10 @@
         <v>2015</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>23.00111700642279</v>
+        <v>22.54565763753142</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1775,10 +1778,10 @@
         <v>2016</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>17.35357323445137</v>
+        <v>17.00994437889769</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1792,10 +1795,10 @@
         <v>2017</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>123.3038922155689</v>
+        <v>120.8622754491018</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1809,10 +1812,10 @@
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>89.93994321904347</v>
+        <v>88.15898667831405</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1826,10 +1829,10 @@
         <v>2019</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>61.18481652057644</v>
+        <v>59.97325805972367</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1843,10 +1846,10 @@
         <v>2015</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>59.55876685934489</v>
+        <v>58.59344894026975</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1860,10 +1863,10 @@
         <v>2016</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>49.50512491992313</v>
+        <v>48.70275464445868</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1877,10 +1880,10 @@
         <v>2017</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>43.96387427108519</v>
+        <v>43.25131560233253</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1894,10 +1897,10 @@
         <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>39.15262824572514</v>
+        <v>38.51804939835338</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1911,10 +1914,10 @@
         <v>2019</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>66.19057815845824</v>
+        <v>65.11777301927195</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1928,10 +1931,10 @@
         <v>2015</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>58.76957045363308</v>
+        <v>55.81894821356885</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1945,10 +1948,10 @@
         <v>2016</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>55.13935969868173</v>
+        <v>52.37099811676083</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1962,10 +1965,10 @@
         <v>2017</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>71.41219512195123</v>
+        <v>67.82682926829268</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1979,10 +1982,10 @@
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>87.34785202863961</v>
+        <v>82.96241050119332</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1996,10 +1999,10 @@
         <v>2019</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>67.27711397058823</v>
+        <v>63.89935661764706</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2013,10 +2016,10 @@
         <v>2014</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>133.474025974026</v>
+        <v>135.3339517625232</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,10 +2033,10 @@
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>101.6855123674912</v>
+        <v>103.1024734982332</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2047,10 +2050,10 @@
         <v>2015</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>22.27018303644386</v>
+        <v>21.33167184180422</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2064,10 +2067,10 @@
         <v>2016</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>81.01632882882882</v>
+        <v>82.14527027027027</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2081,10 +2084,10 @@
         <v>2016</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>3.841441962456924</v>
+        <v>5.29685052651871</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2098,10 +2101,10 @@
         <v>2017</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>72.59586276488395</v>
+        <v>73.6074672048436</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2115,10 +2118,10 @@
         <v>2017</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>25.58465864405329</v>
+        <v>23.23472889950673</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2132,10 +2135,10 @@
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>59.67855661551224</v>
+        <v>60.51016175860639</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2149,10 +2152,10 @@
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>28.14760025013678</v>
+        <v>25.93969358242789</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2166,10 +2169,10 @@
         <v>2019</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>22.27307332454692</v>
+        <v>20.841797375772</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2183,10 +2186,10 @@
         <v>2015</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E102">
-        <v>123.9414739884393</v>
+        <v>21.30769230769231</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2200,10 +2203,10 @@
         <v>2016</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>103.024024024024</v>
+        <v>-3.448705179282869</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2217,10 +2220,10 @@
         <v>2017</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>91.339190628328</v>
+        <v>4.653897849462365</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2234,10 +2237,10 @@
         <v>2018</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>86.85316455696201</v>
+        <v>7.098923628908252</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2251,10 +2254,10 @@
         <v>2019</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>77.05974842767294</v>
+        <v>10.15395894428153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2268,10 +2271,10 @@
         <v>2015</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E107">
-        <v>54.08163265306123</v>
+        <v>125.592485549133</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2285,10 +2288,10 @@
         <v>2016</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>45.68965517241379</v>
+        <v>104.3963963963964</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2302,10 +2305,10 @@
         <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>13.05418719211823</v>
+        <v>92.55591054313099</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2319,10 +2322,10 @@
         <v>2018</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>38.40579710144928</v>
+        <v>88.01012658227849</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2336,10 +2339,10 @@
         <v>2019</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>-53</v>
+        <v>78.08625336927223</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2353,10 +2356,10 @@
         <v>2015</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>12.02191504280295</v>
+        <v>53.16326530612245</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2370,10 +2373,10 @@
         <v>2016</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>15.65738922697978</v>
+        <v>44.91379310344828</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2387,10 +2390,10 @@
         <v>2017</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>23.43869714341265</v>
+        <v>12.83251231527094</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2404,10 +2407,10 @@
         <v>2018</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>22.24410787265296</v>
+        <v>37.7536231884058</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2421,10 +2424,10 @@
         <v>2019</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>16.82786453967791</v>
+        <v>-52.1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2438,10 +2441,10 @@
         <v>2015</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>7.194254835039819</v>
+        <v>12.36540148282923</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2455,10 +2458,10 @@
         <v>2016</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>4.922163845106051</v>
+        <v>15.95849500540642</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2472,10 +2475,10 @@
         <v>2017</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E119">
-        <v>9.100557654254361</v>
+        <v>23.16343327186542</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2489,10 +2492,10 @@
         <v>2018</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>12.47595561035758</v>
+        <v>22.45950109322202</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2506,10 +2509,10 @@
         <v>2019</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E121">
-        <v>13.95201323772752</v>
+        <v>16.98641224213605</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2523,10 +2526,10 @@
         <v>2015</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E122">
-        <v>15.65670604586518</v>
+        <v>6.863623435722412</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2540,10 +2543,10 @@
         <v>2016</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E123">
-        <v>32.18571428571429</v>
+        <v>4.695952519945514</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2557,10 +2560,10 @@
         <v>2017</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E124">
-        <v>15.41039671682627</v>
+        <v>8.68231696348264</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2574,10 +2577,10 @@
         <v>2018</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>17.26436781609195</v>
+        <v>11.90258939580765</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2591,10 +2594,10 @@
         <v>2019</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>15</v>
+        <v>13.31081081081081</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2608,10 +2611,10 @@
         <v>2015</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E127">
-        <v>13.12386432465173</v>
+        <v>17.69284225156358</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2625,10 +2628,10 @@
         <v>2016</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E128">
-        <v>22.26875642343268</v>
+        <v>36.37142857142857</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2642,10 +2645,10 @@
         <v>2017</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E129">
-        <v>-17.45267821184052</v>
+        <v>17.41450068399453</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2659,10 +2662,10 @@
         <v>2018</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>2166.75</v>
+        <v>19.5095785440613</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2676,10 +2679,10 @@
         <v>2019</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E131">
-        <v>-94.61790393013101</v>
+        <v>16.95073235685752</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2693,10 +2696,10 @@
         <v>2015</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E132">
-        <v>-3.307254623044097</v>
+        <v>13.40854027861902</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2710,10 +2713,10 @@
         <v>2016</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E133">
-        <v>2.187206020696143</v>
+        <v>22.75179856115108</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2727,10 +2730,10 @@
         <v>2017</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E134">
-        <v>1.320272572402044</v>
+        <v>-17.83125251711639</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2744,10 +2747,10 @@
         <v>2018</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E135">
-        <v>5.381944444444444</v>
+        <v>2213.75</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2761,10 +2764,10 @@
         <v>2019</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E136">
-        <v>-4.313543599257885</v>
+        <v>-96.67030567685589</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2778,10 +2781,10 @@
         <v>2015</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E137">
-        <v>2.466784765279008</v>
+        <v>-2.937411095305832</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2795,10 +2798,10 @@
         <v>2016</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>2.003597122302158</v>
+        <v>1.942615239887112</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2812,10 +2815,10 @@
         <v>2017</v>
       </c>
       <c r="D139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E139">
-        <v>1.844370860927153</v>
+        <v>1.172629187961385</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2829,10 +2832,10 @@
         <v>2018</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>2.86522633744856</v>
+        <v>4.780092592592592</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2846,10 +2849,95 @@
         <v>2019</v>
       </c>
       <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141">
+        <v>-3.831168831168831</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
         <v>25</v>
       </c>
-      <c r="E141">
-        <v>6.067538126361656</v>
+      <c r="C142">
+        <v>2015</v>
+      </c>
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <v>2.302922940655447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>2016</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143">
+        <v>1.870503597122302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>2017</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144">
+        <v>1.721854304635762</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>2018</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145">
+        <v>2.674897119341564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>2019</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146">
+        <v>5.664488017429194</v>
       </c>
     </row>
   </sheetData>
